--- a/data/trans_camb/P16A13-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A13-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,81</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 2,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 7,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,5; 20,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,98; 4,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 8,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,68; 14,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 2,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 6,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,55; 14,77</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>345,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>212,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>267,16%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,26; 756,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,08; 1908,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,3; 265,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,66; 391,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,67; 748,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,09; 141,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,59; 310,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>92,3; 649,46</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,52</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,86</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 6,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 4,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,08; 10,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 4,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 4,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,27; 11,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 4,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 3,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,33; 10,34</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>505,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>309,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>975,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>361,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>184,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>121,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>513,04%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>131,09; 2006,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,58; 1154,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>329,96; 2782,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 245,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,09; 239,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>182,51; 719,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,32; 386,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,08; 282,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>299,15; 863,74</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,67</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,76</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 2,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 1,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 3,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 4,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 1,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,82; 7,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 2,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 1,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,47; 4,97</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>183,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,41%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,31; 114,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,81; 58,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,63; 148,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,42; 173,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,39; 85,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,82; 317,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,74; 98,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,36; 43,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,38; 189,44</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 2,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 1,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 3,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 2,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 1,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 2,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 1,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 0,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 2,25</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,93%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,02%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,07%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,18%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,76; 82,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,5; 51,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,57; 130,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,82; 75,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,92; 50,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,1; 66,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,66; 48,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,73; 22,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,04; 67,62</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,06</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 3,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 1,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,69; 6,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 4,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 2,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,23; 5,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,94; 3,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 1,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,7; 5,22</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,01%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>180,41%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,5%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,97%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,31; 206,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,77; 94,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>79,04; 360,66</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,37; 135,66</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,49; 82,85</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,84; 181,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,57; 136,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,06; 59,21</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,1; 203,3</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,23</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 2,32</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 1,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,82; 4,79</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 2,76</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 1,36</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 5,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 2,31</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 0,99</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,44; 4,89</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,32%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,67%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>127,99%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,75%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,31%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,95; 101,56</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,65; 47,66</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,22; 210,69</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,06; 87,5</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,82; 42,96</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>87,35; 178,31</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,45; 81,36</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,89; 34,46</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>102,48; 175,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A13-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>8,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,66</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,81</t>
+          <t>9,13</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 2,83</t>
+          <t>1,77; 5,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 7,57</t>
+          <t>1,0; 4,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 20,04</t>
+          <t>6,46; 12,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 4,91</t>
+          <t>-0,4; 3,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 8,24</t>
+          <t>-0,34; 3,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 14,76</t>
+          <t>7,42; 11,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 2,64</t>
+          <t>1,22; 3,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,26</t>
+          <t>0,94; 3,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 14,77</t>
+          <t>7,65; 11,1</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-21,73%</t>
+          <t>292,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>80,91%</t>
+          <t>218,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>345,87%</t>
+          <t>743,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,65%</t>
+          <t>58,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,15%</t>
+          <t>60,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>212,37%</t>
+          <t>324,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-17,44%</t>
+          <t>124,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>64,45%</t>
+          <t>105,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>267,16%</t>
+          <t>445,81%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>91,01; 821,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-73,26; 756,42</t>
+          <t>34,49; 682,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,08; 1908,42</t>
+          <t>311,95; 1802,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-87,3; 265,48</t>
+          <t>-12,77; 174,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,66; 391,82</t>
+          <t>-13,33; 176,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,67; 748,35</t>
+          <t>166,91; 597,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-74,09; 141,65</t>
+          <t>45,33; 254,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,59; 310,13</t>
+          <t>29,78; 219,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,3; 649,46</t>
+          <t>283,84; 716,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,52</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>3,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,82</t>
+          <t>-0,94; 2,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,33</t>
+          <t>-1,95; 1,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 10,59</t>
+          <t>-1,51; 2,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 4,46</t>
+          <t>0,37; 4,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,02</t>
+          <t>-1,36; 1,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 11,88</t>
+          <t>3,91; 7,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,7</t>
+          <t>0,15; 2,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,65</t>
+          <t>-1,11; 1,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 10,34</t>
+          <t>0,94; 4,59</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>505,06%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>309,79%</t>
+          <t>-10,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>975,92%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>83,09%</t>
+          <t>70,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,12%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>361,87%</t>
+          <t>186,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>184,42%</t>
+          <t>45,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>121,67%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>513,04%</t>
+          <t>98,18%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>131,09; 2006,39</t>
+          <t>-26,31; 114,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,58; 1154,02</t>
+          <t>-47,81; 58,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>329,96; 2782,05</t>
+          <t>-34,14; 104,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 245,86</t>
+          <t>7,42; 173,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 239,58</t>
+          <t>-35,39; 85,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>182,51; 719,16</t>
+          <t>91,35; 321,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,32; 386,2</t>
+          <t>3,74; 98,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,08; 282,3</t>
+          <t>-30,36; 43,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>299,15; 863,74</t>
+          <t>31,03; 172,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>0,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,51</t>
+          <t>-2,02; 2,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,33</t>
+          <t>-2,93; 1,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,5</t>
+          <t>-1,14; 3,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,04</t>
+          <t>-2,03; 2,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,99</t>
+          <t>-2,55; 1,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 7,3</t>
+          <t>-3,37; 1,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,59</t>
+          <t>-1,4; 1,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,09</t>
+          <t>-2,02; 0,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,97</t>
+          <t>-1,64; 1,92</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>-0,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,07%</t>
+          <t>-21,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>70,21%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>-12,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>183,67%</t>
+          <t>-10,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>45,66%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>-16,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>120,41%</t>
+          <t>8,22%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 114,12</t>
+          <t>-42,76; 82,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,81; 58,74</t>
+          <t>-59,5; 51,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 148,5</t>
+          <t>-24,45; 123,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,42; 173,16</t>
+          <t>-34,82; 75,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 85,38</t>
+          <t>-45,92; 50,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>88,82; 317,47</t>
+          <t>-61,11; 42,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,74; 98,15</t>
+          <t>-28,66; 48,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,36; 43,92</t>
+          <t>-41,73; 22,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>62,38; 189,44</t>
+          <t>-34,14; 55,23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>3,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,07</t>
+          <t>0,28; 3,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,23</t>
+          <t>-1,34; 1,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,33</t>
+          <t>2,57; 6,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,57</t>
+          <t>0,56; 4,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,68</t>
+          <t>-1,18; 2,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,36</t>
+          <t>1,55; 5,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,63</t>
+          <t>0,94; 3,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,8</t>
+          <t>-0,88; 1,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,25</t>
+          <t>2,39; 5,02</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,93%</t>
+          <t>80,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-21,02%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>175,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>62,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-12,43%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>69,05%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-16,07%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>119,88%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,76; 82,51</t>
+          <t>3,31; 206,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-59,5; 51,5</t>
+          <t>-42,77; 94,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 130,61</t>
+          <t>75,09; 345,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 75,64</t>
+          <t>9,37; 135,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-45,92; 50,68</t>
+          <t>-27,49; 82,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,1; 66,35</t>
+          <t>32,66; 169,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 48,64</t>
+          <t>21,57; 136,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 22,85</t>
+          <t>-24,06; 59,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 67,62</t>
+          <t>64,8; 192,91</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>3,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,9</t>
+          <t>0,56; 2,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,49</t>
+          <t>-0,56; 1,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,13</t>
+          <t>1,79; 4,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,23</t>
+          <t>0,73; 2,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,53</t>
+          <t>-0,54; 1,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,44</t>
+          <t>2,73; 5,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,73</t>
+          <t>0,93; 2,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,55</t>
+          <t>-0,25; 0,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,22</t>
+          <t>2,77; 4,61</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>80,01%</t>
+          <t>55,32%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>180,41%</t>
+          <t>127,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>62,5%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>117,89%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>69,05%</t>
+          <t>51,75%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>126,97%</t>
+          <t>122,29%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,31; 206,17</t>
+          <t>18,95; 101,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 94,42</t>
+          <t>-18,65; 47,66</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>79,04; 360,66</t>
+          <t>62,3; 189,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9,37; 135,66</t>
+          <t>16,06; 87,5</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 82,85</t>
+          <t>-13,82; 42,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>45,84; 181,18</t>
+          <t>72,56; 170,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>21,57; 136,23</t>
+          <t>26,45; 81,36</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 59,21</t>
+          <t>-7,89; 34,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>69,1; 203,3</t>
+          <t>83,61; 160,27</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,77</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,76</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>4,6</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 2,32</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 1,09</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>2,82; 4,79</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 2,76</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 1,36</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>3,48; 5,54</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 2,31</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 0,99</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>3,44; 4,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>55,32%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>11,18%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>142,67%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>49,09%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>12,81%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>127,99%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>51,75%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>12,24%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>135,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>18,95; 101,56</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-18,65; 47,66</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>89,22; 210,69</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>16,06; 87,5</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-13,82; 42,96</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>87,35; 178,31</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>26,45; 81,36</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-7,89; 34,46</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>102,48; 175,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A13-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 5,7</t>
+          <t>1,75; 5,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,3</t>
+          <t>0,83; 4,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,46; 12,09</t>
+          <t>6,36; 11,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,75</t>
+          <t>-0,42; 4,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,95</t>
+          <t>-0,02; 3,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,42; 11,75</t>
+          <t>7,47; 11,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,92</t>
+          <t>1,18; 3,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,5</t>
+          <t>0,89; 3,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 11,1</t>
+          <t>7,56; 10,9</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,01; 821,46</t>
+          <t>93,52; 973,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,49; 682,66</t>
+          <t>42,19; 740,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>311,95; 1802,34</t>
+          <t>338,75; 1914,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 174,04</t>
+          <t>-12,41; 188,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 176,01</t>
+          <t>-1,03; 200,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>166,91; 597,07</t>
+          <t>173,19; 581,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,33; 254,29</t>
+          <t>40,61; 259,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,78; 219,38</t>
+          <t>27,33; 225,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>283,84; 716,44</t>
+          <t>260,05; 683,7</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,51</t>
+          <t>-1,02; 2,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,33</t>
+          <t>-2,01; 1,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,67</t>
+          <t>-1,81; 2,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,04</t>
+          <t>0,37; 4,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,99</t>
+          <t>-1,27; 1,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,37</t>
+          <t>4,05; 7,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,59</t>
+          <t>0,13; 2,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,09</t>
+          <t>-1,2; 1,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,59</t>
+          <t>0,8; 4,41</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 114,12</t>
+          <t>-27,3; 102,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,81; 58,74</t>
+          <t>-48,4; 49,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,14; 104,39</t>
+          <t>-40,33; 99,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 173,16</t>
+          <t>7,71; 174,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 85,38</t>
+          <t>-33,58; 86,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,35; 321,73</t>
+          <t>99,19; 329,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 98,15</t>
+          <t>3,39; 104,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,36; 43,92</t>
+          <t>-32,15; 44,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,03; 172,74</t>
+          <t>27,47; 165,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,07</t>
+          <t>-2,21; 1,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,23</t>
+          <t>-2,84; 1,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 3,23</t>
+          <t>-0,77; 3,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,57</t>
+          <t>-2,07; 2,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,68</t>
+          <t>-2,67; 1,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,68</t>
+          <t>-3,45; 1,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,63</t>
+          <t>-1,3; 1,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,8</t>
+          <t>-2,03; 0,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,92</t>
+          <t>-1,61; 1,83</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,76; 82,51</t>
+          <t>-47,24; 70,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,5; 51,5</t>
+          <t>-58,65; 43,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 123,93</t>
+          <t>-18,52; 127,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 75,64</t>
+          <t>-34,66; 70,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,92; 50,68</t>
+          <t>-48,51; 50,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,11; 42,33</t>
+          <t>-55,22; 47,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 48,64</t>
+          <t>-27,88; 47,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 22,85</t>
+          <t>-43,5; 23,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,14; 55,23</t>
+          <t>-32,36; 51,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,9</t>
+          <t>0,28; 4,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,49</t>
+          <t>-1,45; 1,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,01</t>
+          <t>2,67; 6,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,23</t>
+          <t>0,61; 4,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,53</t>
+          <t>-1,22; 2,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,19</t>
+          <t>1,39; 5,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,73</t>
+          <t>0,96; 3,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,55</t>
+          <t>-0,9; 1,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,02</t>
+          <t>2,54; 5,31</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,31; 206,17</t>
+          <t>3,58; 223,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 94,42</t>
+          <t>-45,21; 86,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>75,09; 345,91</t>
+          <t>76,03; 373,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,37; 135,66</t>
+          <t>12,74; 160,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 82,85</t>
+          <t>-26,87; 80,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,66; 169,75</t>
+          <t>31,54; 178,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,57; 136,23</t>
+          <t>24,0; 139,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 59,21</t>
+          <t>-25,02; 56,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>64,8; 192,91</t>
+          <t>66,25; 214,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,32</t>
+          <t>0,61; 2,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,09</t>
+          <t>-0,53; 1,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,37</t>
+          <t>2,04; 4,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,76</t>
+          <t>0,73; 2,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,36</t>
+          <t>-0,45; 1,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,27</t>
+          <t>2,66; 5,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,31</t>
+          <t>0,96; 2,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,99</t>
+          <t>-0,21; 1,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,77; 4,61</t>
+          <t>2,84; 4,64</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>18,95; 101,56</t>
+          <t>21,4; 109,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 47,66</t>
+          <t>-16,99; 47,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>62,3; 189,57</t>
+          <t>69,24; 203,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>16,06; 87,5</t>
+          <t>17,56; 86,16</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 42,96</t>
+          <t>-11,37; 43,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>72,56; 170,0</t>
+          <t>69,34; 164,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>26,45; 81,36</t>
+          <t>29,56; 81,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 34,46</t>
+          <t>-5,81; 37,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>83,61; 160,27</t>
+          <t>87,23; 167,78</t>
         </is>
       </c>
     </row>
